--- a/torcms_metadata/meta_元数据模板20220921.xlsx
+++ b/torcms_metadata/meta_元数据模板20220921.xlsx
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="meta" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="dict" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
@@ -1654,8 +1654,8 @@
   </sheetData>
   <sheetProtection sheet="true" password="ec09" objects="true" scenarios="true"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -1674,7 +1674,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.46875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.4609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="24" t="s">
@@ -1740,10 +1740,10 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
--- a/torcms_metadata/meta_元数据模板20220921.xlsx
+++ b/torcms_metadata/meta_元数据模板20220921.xlsx
@@ -5,11 +5,12 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="meta" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="dict" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="meta2" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="dict" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="202">
   <si>
     <t xml:space="preserve">field_name</t>
   </si>
@@ -519,6 +520,72 @@
   </si>
   <si>
     <t xml:space="preserve">Specification date type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">contributor_agency</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contributor agency</t>
+  </si>
+  <si>
+    <t xml:space="preserve">contributor_email</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contributor email</t>
+  </si>
+  <si>
+    <t xml:space="preserve">country_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Country id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">data_citation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data citation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">record_num</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data record num</t>
+  </si>
+  <si>
+    <t xml:space="preserve">resperson_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resperson name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">responsible_address</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Responsible address</t>
+  </si>
+  <si>
+    <t xml:space="preserve">responsible_email</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Responsible email</t>
+  </si>
+  <si>
+    <t xml:space="preserve">responsible_postcode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Responsible postcode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">responsible_telephone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Responsible telephone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">update_user</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Last Modified</t>
   </si>
   <si>
     <t xml:space="preserve">Lanuage</t>
@@ -567,10 +634,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -639,6 +707,28 @@
       <family val="3"/>
       <charset val="1"/>
     </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="YaHei_Monaco"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="YaHei_Monaco"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF067D17"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -729,14 +819,14 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="33">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+      <protection locked="true" hidden="true"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
@@ -752,19 +842,15 @@
     </xf>
     <xf numFmtId="164" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+      <protection locked="true" hidden="true"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="true"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
@@ -772,7 +858,7 @@
     </xf>
     <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+      <protection locked="true" hidden="true"/>
     </xf>
     <xf numFmtId="164" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
@@ -780,7 +866,7 @@
     </xf>
     <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+      <protection locked="true" hidden="true"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
@@ -792,11 +878,11 @@
     </xf>
     <xf numFmtId="164" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+      <protection locked="true" hidden="true"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+      <protection locked="true" hidden="true"/>
     </xf>
     <xf numFmtId="164" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
@@ -804,15 +890,15 @@
     </xf>
     <xf numFmtId="164" fontId="5" fillId="6" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+      <protection locked="true" hidden="true"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+      <protection locked="true" hidden="true"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="7" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+      <protection locked="true" hidden="true"/>
     </xf>
     <xf numFmtId="164" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
@@ -820,11 +906,47 @@
     </xf>
     <xf numFmtId="164" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+      <protection locked="true" hidden="true"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="7" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="true"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="true"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="true"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="true"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="true"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="true"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
@@ -851,7 +973,7 @@
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF067D17"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
@@ -910,7 +1032,7 @@
   </sheetPr>
   <dimension ref="A1:E1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A26" activeCellId="0" sqref="A26"/>
     </sheetView>
   </sheetViews>
@@ -936,7 +1058,7 @@
       <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="5" t="s">
@@ -944,711 +1066,711 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="10" t="s">
+      <c r="B2" s="8"/>
+      <c r="C2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="11" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="10" t="s">
+      <c r="B3" s="12"/>
+      <c r="C3" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="12"/>
+      <c r="E3" s="11"/>
     </row>
     <row r="4" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="14"/>
-      <c r="C4" s="12" t="s">
+      <c r="B4" s="13"/>
+      <c r="C4" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="12"/>
+      <c r="E4" s="11"/>
     </row>
     <row r="5" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="14"/>
-      <c r="C5" s="10" t="s">
+      <c r="B5" s="13"/>
+      <c r="C5" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="10"/>
+      <c r="E5" s="9"/>
     </row>
     <row r="6" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="14"/>
-      <c r="C6" s="12" t="s">
+      <c r="B6" s="13"/>
+      <c r="C6" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="10"/>
+      <c r="E6" s="9"/>
     </row>
     <row r="7" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="14"/>
-      <c r="C7" s="10" t="s">
+      <c r="B7" s="13"/>
+      <c r="C7" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="12"/>
+      <c r="E7" s="11"/>
     </row>
     <row r="8" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="14"/>
-      <c r="C8" s="10" t="s">
+      <c r="B8" s="13"/>
+      <c r="C8" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="10"/>
+      <c r="E8" s="9"/>
     </row>
     <row r="9" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="12" t="s">
+      <c r="B9" s="13"/>
+      <c r="C9" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="12"/>
+      <c r="E9" s="11"/>
     </row>
     <row r="10" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="14"/>
-      <c r="C10" s="12" t="s">
+      <c r="B10" s="13"/>
+      <c r="C10" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="E10" s="12"/>
+      <c r="E10" s="11"/>
     </row>
     <row r="11" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B11" s="14"/>
-      <c r="C11" s="12" t="s">
+      <c r="B11" s="13"/>
+      <c r="C11" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="E11" s="12"/>
+      <c r="E11" s="11"/>
     </row>
     <row r="12" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B12" s="14"/>
-      <c r="C12" s="12" t="s">
+      <c r="B12" s="13"/>
+      <c r="C12" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E12" s="12"/>
+      <c r="E12" s="11"/>
     </row>
     <row r="13" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="15" t="s">
+      <c r="A13" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="B13" s="14"/>
-      <c r="C13" s="16" t="s">
+      <c r="B13" s="13"/>
+      <c r="C13" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="D13" s="17" t="s">
+      <c r="D13" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="E13" s="16"/>
+      <c r="E13" s="15"/>
     </row>
     <row r="14" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="15" t="s">
+      <c r="A14" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="B14" s="14"/>
-      <c r="C14" s="16" t="s">
+      <c r="B14" s="13"/>
+      <c r="C14" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="D14" s="17" t="s">
+      <c r="D14" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="E14" s="16"/>
+      <c r="E14" s="15"/>
     </row>
     <row r="15" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="15" t="s">
+      <c r="A15" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="B15" s="14"/>
-      <c r="C15" s="16" t="s">
+      <c r="B15" s="13"/>
+      <c r="C15" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="D15" s="17" t="s">
+      <c r="D15" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="E15" s="16"/>
+      <c r="E15" s="15"/>
     </row>
     <row r="16" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="15" t="s">
+      <c r="A16" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="B16" s="14"/>
-      <c r="C16" s="16" t="s">
+      <c r="B16" s="13"/>
+      <c r="C16" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="D16" s="17" t="s">
+      <c r="D16" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="E16" s="16"/>
+      <c r="E16" s="15"/>
     </row>
     <row r="17" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="15" t="s">
+      <c r="A17" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="B17" s="14"/>
-      <c r="C17" s="16" t="s">
+      <c r="B17" s="13"/>
+      <c r="C17" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="D17" s="17" t="s">
+      <c r="D17" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="E17" s="16"/>
+      <c r="E17" s="15"/>
     </row>
     <row r="18" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="15" t="s">
+      <c r="A18" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="B18" s="14"/>
-      <c r="C18" s="16" t="s">
+      <c r="B18" s="13"/>
+      <c r="C18" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="D18" s="17" t="s">
+      <c r="D18" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="E18" s="16"/>
+      <c r="E18" s="15"/>
     </row>
     <row r="19" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="15" t="s">
+      <c r="A19" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="B19" s="14"/>
-      <c r="C19" s="16" t="s">
+      <c r="B19" s="13"/>
+      <c r="C19" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="D19" s="17" t="s">
+      <c r="D19" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="E19" s="16"/>
+      <c r="E19" s="15"/>
     </row>
     <row r="20" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="15" t="s">
+      <c r="A20" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="B20" s="14"/>
-      <c r="C20" s="18" t="s">
+      <c r="B20" s="13"/>
+      <c r="C20" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="D20" s="17" t="s">
+      <c r="D20" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="E20" s="16"/>
+      <c r="E20" s="15"/>
     </row>
     <row r="21" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="19" t="s">
+      <c r="A21" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="B21" s="14"/>
-      <c r="C21" s="20" t="s">
+      <c r="B21" s="13"/>
+      <c r="C21" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="D21" s="21" t="s">
+      <c r="D21" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="E21" s="22" t="s">
+      <c r="E21" s="21" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="19" t="s">
+      <c r="A22" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="B22" s="14"/>
-      <c r="C22" s="22" t="s">
+      <c r="B22" s="13"/>
+      <c r="C22" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="D22" s="21" t="s">
+      <c r="D22" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="E22" s="22"/>
+      <c r="E22" s="21"/>
     </row>
     <row r="23" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="19" t="s">
+      <c r="A23" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="B23" s="14"/>
-      <c r="C23" s="20" t="s">
+      <c r="B23" s="13"/>
+      <c r="C23" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="D23" s="21" t="s">
+      <c r="D23" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="E23" s="22"/>
+      <c r="E23" s="21"/>
     </row>
     <row r="24" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="19" t="s">
+      <c r="A24" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="B24" s="14"/>
-      <c r="C24" s="22"/>
-      <c r="D24" s="21" t="s">
+      <c r="B24" s="13"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="E24" s="22"/>
+      <c r="E24" s="21"/>
     </row>
     <row r="25" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="19" t="s">
+      <c r="A25" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="B25" s="14"/>
-      <c r="C25" s="23" t="s">
+      <c r="B25" s="13"/>
+      <c r="C25" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="D25" s="21" t="s">
+      <c r="D25" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="E25" s="22"/>
+      <c r="E25" s="21"/>
     </row>
     <row r="26" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="19" t="s">
+      <c r="A26" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="B26" s="14"/>
-      <c r="C26" s="22" t="s">
+      <c r="B26" s="13"/>
+      <c r="C26" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="D26" s="21" t="s">
+      <c r="D26" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="E26" s="22"/>
+      <c r="E26" s="21"/>
     </row>
     <row r="27" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="19" t="s">
+      <c r="A27" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="B27" s="14"/>
-      <c r="C27" s="22" t="s">
+      <c r="B27" s="13"/>
+      <c r="C27" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="D27" s="21" t="s">
+      <c r="D27" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="E27" s="22"/>
+      <c r="E27" s="21"/>
     </row>
     <row r="28" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="19" t="s">
+      <c r="A28" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="B28" s="14"/>
-      <c r="C28" s="22" t="s">
+      <c r="B28" s="13"/>
+      <c r="C28" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="D28" s="21" t="s">
+      <c r="D28" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="E28" s="22"/>
+      <c r="E28" s="21"/>
     </row>
     <row r="29" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="19" t="s">
+      <c r="A29" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="B29" s="14"/>
-      <c r="C29" s="22" t="s">
+      <c r="B29" s="13"/>
+      <c r="C29" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="D29" s="21" t="s">
+      <c r="D29" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="E29" s="22"/>
+      <c r="E29" s="21"/>
     </row>
     <row r="30" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="19" t="s">
+      <c r="A30" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="B30" s="14"/>
-      <c r="C30" s="20" t="s">
+      <c r="B30" s="13"/>
+      <c r="C30" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="D30" s="21" t="s">
+      <c r="D30" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="E30" s="22"/>
+      <c r="E30" s="21"/>
     </row>
     <row r="31" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="19" t="s">
+      <c r="A31" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="B31" s="14"/>
-      <c r="C31" s="20" t="s">
+      <c r="B31" s="13"/>
+      <c r="C31" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="D31" s="21" t="s">
+      <c r="D31" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="E31" s="22"/>
+      <c r="E31" s="21"/>
     </row>
     <row r="32" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="19" t="s">
+      <c r="A32" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="B32" s="14"/>
-      <c r="C32" s="20" t="s">
+      <c r="B32" s="13"/>
+      <c r="C32" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="D32" s="21" t="s">
+      <c r="D32" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="E32" s="22"/>
+      <c r="E32" s="21"/>
     </row>
     <row r="33" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="19" t="s">
+      <c r="A33" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="B33" s="14"/>
-      <c r="C33" s="20" t="s">
+      <c r="B33" s="13"/>
+      <c r="C33" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="D33" s="21" t="s">
+      <c r="D33" s="20" t="s">
         <v>101</v>
       </c>
-      <c r="E33" s="22"/>
+      <c r="E33" s="21"/>
     </row>
     <row r="34" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="19" t="s">
+      <c r="A34" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="B34" s="14"/>
-      <c r="C34" s="20" t="s">
+      <c r="B34" s="13"/>
+      <c r="C34" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="D34" s="21" t="s">
+      <c r="D34" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="E34" s="22"/>
+      <c r="E34" s="21"/>
     </row>
     <row r="35" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="19" t="s">
+      <c r="A35" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="B35" s="14"/>
-      <c r="C35" s="20" t="s">
+      <c r="B35" s="13"/>
+      <c r="C35" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="D35" s="21" t="s">
+      <c r="D35" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="E35" s="22"/>
+      <c r="E35" s="21"/>
     </row>
     <row r="36" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="19" t="s">
+      <c r="A36" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="B36" s="14"/>
-      <c r="C36" s="20" t="s">
+      <c r="B36" s="13"/>
+      <c r="C36" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="D36" s="21" t="s">
+      <c r="D36" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="E36" s="22"/>
+      <c r="E36" s="21"/>
     </row>
     <row r="37" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="19" t="s">
+      <c r="A37" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="B37" s="14"/>
-      <c r="C37" s="20" t="s">
+      <c r="B37" s="13"/>
+      <c r="C37" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="D37" s="21" t="s">
+      <c r="D37" s="20" t="s">
         <v>113</v>
       </c>
-      <c r="E37" s="22"/>
+      <c r="E37" s="21"/>
     </row>
     <row r="38" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="19" t="s">
+      <c r="A38" s="18" t="s">
         <v>114</v>
       </c>
-      <c r="B38" s="14"/>
-      <c r="C38" s="22"/>
-      <c r="D38" s="21" t="s">
+      <c r="B38" s="13"/>
+      <c r="C38" s="21"/>
+      <c r="D38" s="20" t="s">
         <v>115</v>
       </c>
-      <c r="E38" s="22"/>
+      <c r="E38" s="21"/>
     </row>
     <row r="39" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="19" t="s">
+      <c r="A39" s="18" t="s">
         <v>116</v>
       </c>
-      <c r="B39" s="14"/>
-      <c r="C39" s="22"/>
-      <c r="D39" s="21" t="s">
+      <c r="B39" s="13"/>
+      <c r="C39" s="21"/>
+      <c r="D39" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="E39" s="22"/>
+      <c r="E39" s="21"/>
     </row>
     <row r="40" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="19" t="s">
+      <c r="A40" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="B40" s="14"/>
-      <c r="C40" s="22"/>
-      <c r="D40" s="21" t="s">
+      <c r="B40" s="13"/>
+      <c r="C40" s="21"/>
+      <c r="D40" s="20" t="s">
         <v>119</v>
       </c>
-      <c r="E40" s="22"/>
+      <c r="E40" s="21"/>
     </row>
     <row r="41" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="19" t="s">
+      <c r="A41" s="18" t="s">
         <v>120</v>
       </c>
-      <c r="B41" s="14"/>
-      <c r="C41" s="22" t="s">
+      <c r="B41" s="13"/>
+      <c r="C41" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="D41" s="21" t="s">
+      <c r="D41" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="E41" s="22"/>
+      <c r="E41" s="21"/>
     </row>
     <row r="42" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="19" t="s">
+      <c r="A42" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="B42" s="14"/>
-      <c r="C42" s="22"/>
-      <c r="D42" s="21" t="s">
+      <c r="B42" s="13"/>
+      <c r="C42" s="21"/>
+      <c r="D42" s="20" t="s">
         <v>124</v>
       </c>
-      <c r="E42" s="22"/>
+      <c r="E42" s="21"/>
     </row>
     <row r="43" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="19" t="s">
+      <c r="A43" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="B43" s="14"/>
-      <c r="C43" s="22"/>
-      <c r="D43" s="21" t="s">
+      <c r="B43" s="13"/>
+      <c r="C43" s="21"/>
+      <c r="D43" s="20" t="s">
         <v>126</v>
       </c>
-      <c r="E43" s="22"/>
+      <c r="E43" s="21"/>
     </row>
     <row r="44" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="19" t="s">
+      <c r="A44" s="18" t="s">
         <v>127</v>
       </c>
-      <c r="B44" s="14"/>
-      <c r="C44" s="22" t="s">
+      <c r="B44" s="13"/>
+      <c r="C44" s="21" t="s">
         <v>128</v>
       </c>
-      <c r="D44" s="21" t="s">
+      <c r="D44" s="20" t="s">
         <v>129</v>
       </c>
-      <c r="E44" s="22"/>
+      <c r="E44" s="21"/>
     </row>
     <row r="45" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="19" t="s">
+      <c r="A45" s="18" t="s">
         <v>130</v>
       </c>
-      <c r="B45" s="14"/>
-      <c r="C45" s="22" t="s">
+      <c r="B45" s="13"/>
+      <c r="C45" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="D45" s="21" t="s">
+      <c r="D45" s="20" t="s">
         <v>132</v>
       </c>
-      <c r="E45" s="22"/>
+      <c r="E45" s="21"/>
     </row>
     <row r="46" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="19" t="s">
+      <c r="A46" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="B46" s="14"/>
-      <c r="C46" s="22" t="s">
+      <c r="B46" s="13"/>
+      <c r="C46" s="21" t="s">
         <v>134</v>
       </c>
-      <c r="D46" s="21" t="s">
+      <c r="D46" s="20" t="s">
         <v>135</v>
       </c>
-      <c r="E46" s="22"/>
+      <c r="E46" s="21"/>
     </row>
     <row r="47" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="19" t="s">
+      <c r="A47" s="18" t="s">
         <v>136</v>
       </c>
-      <c r="B47" s="14"/>
-      <c r="C47" s="22" t="s">
+      <c r="B47" s="13"/>
+      <c r="C47" s="21" t="s">
         <v>137</v>
       </c>
-      <c r="D47" s="21" t="s">
+      <c r="D47" s="20" t="s">
         <v>138</v>
       </c>
-      <c r="E47" s="22"/>
+      <c r="E47" s="21"/>
     </row>
     <row r="48" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="19" t="s">
+      <c r="A48" s="18" t="s">
         <v>139</v>
       </c>
-      <c r="B48" s="14"/>
-      <c r="C48" s="22" t="s">
+      <c r="B48" s="13"/>
+      <c r="C48" s="21" t="s">
         <v>140</v>
       </c>
-      <c r="D48" s="21" t="s">
+      <c r="D48" s="20" t="s">
         <v>141</v>
       </c>
-      <c r="E48" s="22"/>
+      <c r="E48" s="21"/>
     </row>
     <row r="49" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="19" t="s">
+      <c r="A49" s="18" t="s">
         <v>142</v>
       </c>
-      <c r="B49" s="14"/>
-      <c r="C49" s="22" t="s">
+      <c r="B49" s="13"/>
+      <c r="C49" s="21" t="s">
         <v>143</v>
       </c>
-      <c r="D49" s="21" t="s">
+      <c r="D49" s="20" t="s">
         <v>144</v>
       </c>
-      <c r="E49" s="22"/>
+      <c r="E49" s="21"/>
     </row>
     <row r="50" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="19" t="s">
+      <c r="A50" s="18" t="s">
         <v>145</v>
       </c>
-      <c r="B50" s="14"/>
-      <c r="C50" s="22" t="s">
+      <c r="B50" s="13"/>
+      <c r="C50" s="21" t="s">
         <v>146</v>
       </c>
-      <c r="D50" s="21" t="s">
+      <c r="D50" s="20" t="s">
         <v>147</v>
       </c>
-      <c r="E50" s="22"/>
+      <c r="E50" s="21"/>
     </row>
     <row r="51" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="19" t="s">
+      <c r="A51" s="18" t="s">
         <v>148</v>
       </c>
-      <c r="B51" s="14"/>
-      <c r="C51" s="22" t="s">
+      <c r="B51" s="13"/>
+      <c r="C51" s="21" t="s">
         <v>149</v>
       </c>
-      <c r="D51" s="21" t="s">
+      <c r="D51" s="20" t="s">
         <v>150</v>
       </c>
-      <c r="E51" s="22"/>
+      <c r="E51" s="21"/>
     </row>
     <row r="52" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="19" t="s">
+      <c r="A52" s="18" t="s">
         <v>151</v>
       </c>
-      <c r="B52" s="14"/>
-      <c r="C52" s="22" t="s">
+      <c r="B52" s="13"/>
+      <c r="C52" s="21" t="s">
         <v>152</v>
       </c>
-      <c r="D52" s="21" t="s">
+      <c r="D52" s="20" t="s">
         <v>153</v>
       </c>
-      <c r="E52" s="22"/>
+      <c r="E52" s="21"/>
     </row>
     <row r="53" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="19" t="s">
+      <c r="A53" s="18" t="s">
         <v>154</v>
       </c>
-      <c r="B53" s="14"/>
-      <c r="C53" s="22" t="s">
+      <c r="B53" s="13"/>
+      <c r="C53" s="21" t="s">
         <v>155</v>
       </c>
-      <c r="D53" s="21" t="s">
+      <c r="D53" s="20" t="s">
         <v>156</v>
       </c>
-      <c r="E53" s="22"/>
+      <c r="E53" s="21"/>
     </row>
     <row r="54" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="19" t="s">
+      <c r="A54" s="18" t="s">
         <v>157</v>
       </c>
-      <c r="B54" s="14"/>
-      <c r="C54" s="22" t="s">
+      <c r="B54" s="13"/>
+      <c r="C54" s="21" t="s">
         <v>158</v>
       </c>
-      <c r="D54" s="21" t="s">
+      <c r="D54" s="20" t="s">
         <v>159</v>
       </c>
-      <c r="E54" s="22"/>
+      <c r="E54" s="21"/>
     </row>
     <row r="55" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="19" t="s">
+      <c r="A55" s="18" t="s">
         <v>160</v>
       </c>
-      <c r="B55" s="14"/>
-      <c r="C55" s="22" t="s">
+      <c r="B55" s="13"/>
+      <c r="C55" s="21" t="s">
         <v>161</v>
       </c>
-      <c r="D55" s="21" t="s">
+      <c r="D55" s="20" t="s">
         <v>162</v>
       </c>
-      <c r="E55" s="22"/>
+      <c r="E55" s="21"/>
     </row>
     <row r="56" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="19" t="s">
+      <c r="A56" s="18" t="s">
         <v>163</v>
       </c>
-      <c r="B56" s="14"/>
-      <c r="C56" s="22" t="s">
+      <c r="B56" s="13"/>
+      <c r="C56" s="21" t="s">
         <v>164</v>
       </c>
-      <c r="D56" s="21" t="s">
+      <c r="D56" s="20" t="s">
         <v>165</v>
       </c>
-      <c r="E56" s="22"/>
+      <c r="E56" s="21"/>
     </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
@@ -1668,73 +1790,290 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:AMJ13"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.41015625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="23" width="25.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="24" width="76.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="23" width="24.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="23" width="31.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="23" width="12.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="25" width="31.66"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="7" style="25" width="10.42"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="2" customFormat="true" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="25"/>
+      <c r="AMH1" s="25"/>
+      <c r="AMI1" s="25"/>
+      <c r="AMJ1" s="25"/>
+    </row>
+    <row r="2" s="30" customFormat="true" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="26" t="s">
+        <v>166</v>
+      </c>
+      <c r="B2" s="27"/>
+      <c r="C2" s="28" t="s">
+        <v>166</v>
+      </c>
+      <c r="D2" s="28" t="s">
+        <v>167</v>
+      </c>
+      <c r="E2" s="29"/>
+      <c r="F2" s="25"/>
+    </row>
+    <row r="3" s="30" customFormat="true" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="B3" s="27"/>
+      <c r="C3" s="28" t="s">
+        <v>168</v>
+      </c>
+      <c r="D3" s="28" t="s">
+        <v>169</v>
+      </c>
+      <c r="E3" s="29"/>
+      <c r="F3" s="25"/>
+    </row>
+    <row r="4" s="30" customFormat="true" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="26" t="s">
+        <v>170</v>
+      </c>
+      <c r="B4" s="27"/>
+      <c r="C4" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>171</v>
+      </c>
+      <c r="E4" s="29"/>
+      <c r="F4" s="25"/>
+    </row>
+    <row r="5" s="30" customFormat="true" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="26" t="s">
+        <v>172</v>
+      </c>
+      <c r="B5" s="27"/>
+      <c r="C5" s="28" t="s">
+        <v>172</v>
+      </c>
+      <c r="D5" s="28" t="s">
+        <v>173</v>
+      </c>
+      <c r="E5" s="29"/>
+      <c r="F5" s="25"/>
+    </row>
+    <row r="6" s="30" customFormat="true" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="26" t="s">
+        <v>174</v>
+      </c>
+      <c r="B6" s="27"/>
+      <c r="C6" s="28" t="s">
+        <v>174</v>
+      </c>
+      <c r="D6" s="28" t="s">
+        <v>175</v>
+      </c>
+      <c r="E6" s="29"/>
+      <c r="F6" s="25"/>
+    </row>
+    <row r="7" s="30" customFormat="true" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="26" t="s">
+        <v>176</v>
+      </c>
+      <c r="B7" s="27"/>
+      <c r="C7" s="28" t="s">
+        <v>176</v>
+      </c>
+      <c r="D7" s="28" t="s">
+        <v>177</v>
+      </c>
+      <c r="E7" s="29"/>
+      <c r="F7" s="25"/>
+    </row>
+    <row r="8" s="30" customFormat="true" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="26" t="s">
+        <v>178</v>
+      </c>
+      <c r="B8" s="27"/>
+      <c r="C8" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="D8" s="28" t="s">
+        <v>179</v>
+      </c>
+      <c r="E8" s="29"/>
+      <c r="F8" s="25"/>
+    </row>
+    <row r="9" s="30" customFormat="true" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="26" t="s">
+        <v>180</v>
+      </c>
+      <c r="B9" s="27"/>
+      <c r="C9" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>181</v>
+      </c>
+      <c r="E9" s="29"/>
+      <c r="F9" s="25"/>
+    </row>
+    <row r="10" s="30" customFormat="true" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="26" t="s">
+        <v>182</v>
+      </c>
+      <c r="B10" s="27"/>
+      <c r="C10" s="28" t="s">
+        <v>182</v>
+      </c>
+      <c r="D10" s="28" t="s">
+        <v>183</v>
+      </c>
+      <c r="E10" s="29"/>
+      <c r="F10" s="25"/>
+    </row>
+    <row r="11" s="30" customFormat="true" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="26" t="s">
+        <v>184</v>
+      </c>
+      <c r="B11" s="27"/>
+      <c r="C11" s="28" t="s">
+        <v>184</v>
+      </c>
+      <c r="D11" s="28" t="s">
+        <v>185</v>
+      </c>
+      <c r="E11" s="29"/>
+      <c r="F11" s="25"/>
+    </row>
+    <row r="12" s="30" customFormat="true" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="26" t="s">
+        <v>186</v>
+      </c>
+      <c r="B12" s="27"/>
+      <c r="C12" s="28" t="s">
+        <v>186</v>
+      </c>
+      <c r="D12" s="28" t="s">
+        <v>187</v>
+      </c>
+      <c r="E12" s="29"/>
+      <c r="F12" s="25"/>
+    </row>
+    <row r="13" s="30" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="31"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="25"/>
+    </row>
+  </sheetData>
+  <sheetProtection sheet="true" password="ec09" objects="true" scenarios="true"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="G23" activeCellId="0" sqref="G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.4453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="24" t="s">
-        <v>166</v>
+      <c r="B1" s="32" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="24" t="s">
-        <v>167</v>
-      </c>
-      <c r="B2" s="24" t="s">
-        <v>168</v>
+      <c r="A2" s="32" t="s">
+        <v>189</v>
+      </c>
+      <c r="B2" s="32" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="24" t="s">
-        <v>169</v>
-      </c>
-      <c r="B3" s="24" t="s">
-        <v>170</v>
+      <c r="A3" s="32" t="s">
+        <v>191</v>
+      </c>
+      <c r="B3" s="32" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="24" t="s">
-        <v>171</v>
-      </c>
-      <c r="B4" s="24" t="s">
-        <v>172</v>
+      <c r="A4" s="32" t="s">
+        <v>193</v>
+      </c>
+      <c r="B4" s="32" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="24" t="s">
-        <v>173</v>
-      </c>
-      <c r="B5" s="24" t="s">
-        <v>174</v>
+      <c r="A5" s="32" t="s">
+        <v>195</v>
+      </c>
+      <c r="B5" s="32" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="24" t="s">
-        <v>175</v>
-      </c>
-      <c r="B6" s="24" t="s">
-        <v>176</v>
+      <c r="A6" s="32" t="s">
+        <v>197</v>
+      </c>
+      <c r="B6" s="32" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="24" t="s">
-        <v>177</v>
-      </c>
-      <c r="B7" s="24" t="s">
-        <v>178</v>
+      <c r="A7" s="32" t="s">
+        <v>199</v>
+      </c>
+      <c r="B7" s="32" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="24" t="s">
-        <v>179</v>
+      <c r="B8" s="32" t="s">
+        <v>201</v>
       </c>
     </row>
   </sheetData>
